--- a/public/templates/thpt.xlsx
+++ b/public/templates/thpt.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9173D4-573E-42F6-887B-4E13585370CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4169D-5137-48F2-834E-FDBA552404C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30225" yWindow="5955" windowWidth="23265" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="THPT" sheetId="21" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">THPT!$6:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">THPT!$3:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
   <si>
     <t xml:space="preserve">Tổng </t>
   </si>
@@ -119,12 +119,6 @@
     <t>Tổng phụ trách đội (THCS)</t>
   </si>
   <si>
-    <t>Kế toán, văn thư, thủ quỹ, giáo vụ</t>
-  </si>
-  <si>
-    <t>Mức độ tự chủ chi thường xuyên (%)</t>
-  </si>
-  <si>
     <t>Nhu cầu năm 2026</t>
   </si>
   <si>
@@ -140,10 +134,6 @@
     <t>Hợp đồng chuyên môn nghiệp vụ</t>
   </si>
   <si>
-    <t>Dự toán thu năm 2026 
-(ĐVT: triệu đồng)</t>
-  </si>
-  <si>
     <t>Tổng số CB-GV-NV có mặt (tại thời điểm tháng 8/2025)</t>
   </si>
   <si>
@@ -151,9 +141,6 @@
   </si>
   <si>
     <t>PHỤ LỤC 4: SỐ LƯỢNG NGƯỜI LÀM VIỆC TRONG CÁC TRƯỜNG THPT CÔNG LẬP</t>
-  </si>
-  <si>
-    <t>(Kèm theo Văn bản số         /SNV-TCBC ngày      tháng 8 năm 2025 của Sở Nội vụ)</t>
   </si>
   <si>
     <t>CBQL</t>
@@ -201,10 +188,60 @@
     <t>Trong chỉ tiêu Hội đồng nhân dân giao theo hằng năm</t>
   </si>
   <si>
-    <t>PHƯỜNG XÃ ĐẶC KHU</t>
-  </si>
-  <si>
-    <t>NHÓM</t>
+    <r>
+      <t>Đơn vị nhóm 3 hoặc 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Đơn vị thuộc nhóm nào thì điền số 3 hoặc 4 vào ô tương ứng)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mức độ tự chủ chi thường xuyên (%) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Đơn vị nhóm 3 thực hiện nội dung này, đơn vị nhóm 4 để trống ô này)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dự toán thu năm 2026 
+(ĐVT: triệu đồng)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Đơn vị nhóm 3 thực hiện nội dung này, đơn vị nhóm 4 để trống ô này)</t>
+    </r>
+  </si>
+  <si>
+    <t>Kế toán, văn thư, thủ quỹ, giáo vụ, y tế</t>
+  </si>
+  <si>
+    <t>Xã, phường, đặc khu</t>
+  </si>
+  <si>
+    <t>Tổng số học sinh khuyết tật học hòa nhập</t>
   </si>
 </sst>
 </file>
@@ -214,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,12 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -317,8 +348,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,9 +425,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -388,12 +436,14 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -402,20 +452,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,30 +480,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -459,12 +516,9 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -473,7 +527,6 @@
     <cellStyle name="Normal 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 5 2" xfId="8" xr:uid="{84F764FE-C8B0-6440-82A1-E01857A44683}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,54 +862,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="21" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="21" customWidth="1"/>
-    <col min="3" max="4" width="16" style="21" customWidth="1"/>
-    <col min="5" max="7" width="6.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="21" customWidth="1"/>
-    <col min="10" max="17" width="5.140625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="21" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="21" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" style="21" customWidth="1"/>
-    <col min="21" max="21" width="6" style="21" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" style="21" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" style="21" customWidth="1"/>
-    <col min="25" max="26" width="7.85546875" style="21" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="21" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" style="21" customWidth="1"/>
-    <col min="29" max="29" width="6.7109375" style="21" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" style="21" customWidth="1"/>
-    <col min="31" max="31" width="6.42578125" style="21" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="21" customWidth="1"/>
-    <col min="33" max="33" width="5.7109375" style="21" customWidth="1"/>
-    <col min="34" max="34" width="7.140625" style="21" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" style="21" customWidth="1"/>
-    <col min="36" max="36" width="8.42578125" style="21" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" style="21" customWidth="1"/>
-    <col min="38" max="40" width="7.7109375" style="21" customWidth="1"/>
-    <col min="41" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="4" style="22" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="22" customWidth="1"/>
+    <col min="5" max="7" width="6.28515625" style="22" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" style="22" customWidth="1"/>
+    <col min="10" max="17" width="5.7109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="22" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="22" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="22" customWidth="1"/>
+    <col min="21" max="21" width="6" style="22" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" style="22" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" style="22" customWidth="1"/>
+    <col min="25" max="26" width="7.85546875" style="22" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="22" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" style="22" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="22" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" style="22" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" style="22" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" style="22" customWidth="1"/>
+    <col min="33" max="33" width="5.7109375" style="22" customWidth="1"/>
+    <col min="34" max="34" width="7.140625" style="22" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="22" customWidth="1"/>
+    <col min="36" max="36" width="8.42578125" style="22" customWidth="1"/>
+    <col min="37" max="37" width="7.5703125" style="22" customWidth="1"/>
+    <col min="38" max="40" width="7.7109375" style="22" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" style="22" customWidth="1"/>
+    <col min="42" max="42" width="22.28515625" style="22" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="2" customFormat="1" ht="41.25" hidden="1" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:42" s="2" customFormat="1" ht="41.25" hidden="1" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -866,17 +921,17 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -885,419 +940,465 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="7"/>
+      <c r="AK1" s="9"/>
     </row>
-    <row r="2" spans="1:41" s="3" customFormat="1" ht="15" customHeight="1"/>
-    <row r="3" spans="1:41" s="4" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:42" s="3" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+    </row>
+    <row r="3" spans="1:42" ht="24.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="25.9" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="11"/>
     </row>
-    <row r="4" spans="1:41" s="3" customFormat="1" ht="16.5">
-      <c r="A4" s="20" t="s">
+    <row r="5" spans="1:42" ht="130.15" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="11"/>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5">
+        <v>13</v>
+      </c>
+      <c r="N6" s="6">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
+        <v>15</v>
+      </c>
+      <c r="P6" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>17</v>
+      </c>
+      <c r="R6" s="6">
+        <v>18</v>
+      </c>
+      <c r="S6" s="5">
+        <v>19</v>
+      </c>
+      <c r="T6" s="6">
+        <v>20</v>
+      </c>
+      <c r="U6" s="5">
+        <v>21</v>
+      </c>
+      <c r="V6" s="6">
+        <v>22</v>
+      </c>
+      <c r="W6" s="5">
+        <v>23</v>
+      </c>
+      <c r="X6" s="6">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="5">
         <v>29</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-    </row>
-    <row r="5" spans="1:41" ht="2.25" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-    </row>
-    <row r="6" spans="1:41" ht="24.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="AD6" s="6">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>32</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="5">
         <v>37</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="AL6" s="6">
         <v>38</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" ht="25.7" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO7" s="13"/>
-    </row>
-    <row r="8" spans="1:41" ht="101.45" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="13"/>
+      <c r="AM6" s="5">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>41</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="C3:C5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AK6"/>
-    <mergeCell ref="A4:AN5"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AO6:AO8"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AK3"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="7.874015748031496E-2" top="0.31496062992125984" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
